--- a/Assets/PGFrameDesign/WS1.Element.xlsx
+++ b/Assets/PGFrameDesign/WS1.Element.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanW/Documents/UnityProjects/PGFrame/Assets/PGFrame/Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanW/Documents/UnityProjects/PGFrame/Assets/PGFrameDesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19380" yWindow="-18700" windowWidth="22560" windowHeight="18420" tabRatio="500"/>
+    <workbookView xWindow="1000" yWindow="-19260" windowWidth="28500" windowHeight="18420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="First" sheetId="1" r:id="rId1"/>
@@ -27,16 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>WS1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>First</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LabelTextNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,19 +77,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ButtonClick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string,string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label上的文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个整形数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加一个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParamDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Second</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个 element 的定义</t>
+  </si>
+  <si>
+    <t>ParamType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Command</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ButtonClick</t>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParamName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -101,43 +180,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Replace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string,string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Label上的文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个整形数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的字典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加一个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一个参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Element</t>
+    <t>#Start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +222,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,11 +241,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -480,139 +523,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="G12" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/PGFrameDesign/WS1.Element.xlsx
+++ b/Assets/PGFrameDesign/WS1.Element.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="-19260" windowWidth="28500" windowHeight="18420" tabRatio="500"/>
+    <workbookView xWindow="1240" yWindow="-19680" windowWidth="26680" windowHeight="18420" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="First" sheetId="1" r:id="rId1"/>
+    <sheet name="Second" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>

--- a/Assets/PGFrameDesign/WS1.Element.xlsx
+++ b/Assets/PGFrameDesign/WS1.Element.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="-19680" windowWidth="26680" windowHeight="18420" tabRatio="500"/>
+    <workbookView xWindow="960" yWindow="-20260" windowWidth="26680" windowHeight="18420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Second" sheetId="1" r:id="rId1"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AddNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,6 +177,10 @@
   </si>
   <si>
     <t>#Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddTwoNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -540,37 +542,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -585,13 +587,13 @@
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -606,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -620,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -631,10 +633,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -642,45 +644,45 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
       <c r="E12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/PGFrameDesign/WS1.Element.xlsx
+++ b/Assets/PGFrameDesign/WS1.Element.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="-20260" windowWidth="26680" windowHeight="18420" tabRatio="500"/>
+    <workbookView xWindow="14980" yWindow="-21100" windowWidth="26680" windowHeight="18420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Second" sheetId="1" r:id="rId1"/>
@@ -180,7 +180,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AddTwoNum</t>
+    <t>AddNum2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +526,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Assets/PGFrameDesign/WS1.Element.xlsx
+++ b/Assets/PGFrameDesign/WS1.Element.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14980" yWindow="-21100" windowWidth="26680" windowHeight="18420" tabRatio="500"/>
+    <workbookView xWindow="160" yWindow="-21140" windowWidth="24560" windowHeight="10420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Second" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>WS1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,18 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Replace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string,string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,31 +144,63 @@
     <t>一个 element 的定义</t>
   </si>
   <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddNum2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ParamType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ParamName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddNum2</t>
+    <t>View_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Second1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Second2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111-111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,13 +259,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -523,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,44 +562,42 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -585,19 +607,25 @@
       <c r="D2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -608,10 +636,16 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="H5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -622,10 +656,16 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -633,46 +673,52 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
       <c r="E12" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -680,7 +726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
